--- a/website/derivative/data/heatmap.xlsx
+++ b/website/derivative/data/heatmap.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>50ETF购9月</t>
+    <t>50ETF购2016年1月</t>
   </si>
   <si>
-    <t>50ETF沽9月</t>
+    <t>50ETF沽2016年1月</t>
   </si>
   <si>
-    <t>50ETF购10月</t>
+    <t>50ETF购2016年2月</t>
   </si>
   <si>
-    <t>50ETF沽10月</t>
+    <t>50ETF沽2016年2月</t>
   </si>
   <si>
-    <t>50ETF购12月</t>
+    <t>50ETF购2016年3月</t>
   </si>
   <si>
-    <t>50ETF沽12月</t>
+    <t>50ETF沽2016年3月</t>
   </si>
   <si>
-    <t>50ETF购3月</t>
+    <t>50ETF购2016年6月</t>
   </si>
   <si>
-    <t>50ETF沽3月</t>
+    <t>50ETF沽2016年6月</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,353 +429,513 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>2.2</v>
-      </c>
-      <c r="B2">
-        <v>1031</v>
-      </c>
-      <c r="C2">
-        <v>14768</v>
+        <v>1.8</v>
       </c>
       <c r="F2">
-        <v>12247</v>
+        <v>7143</v>
       </c>
       <c r="G2">
-        <v>15402</v>
+        <v>19477</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="B3">
-        <v>696</v>
-      </c>
-      <c r="C3">
-        <v>24790</v>
+        <v>1.85</v>
       </c>
       <c r="F3">
-        <v>2275</v>
+        <v>2956</v>
       </c>
       <c r="G3">
-        <v>10999</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2.3</v>
-      </c>
-      <c r="B4">
-        <v>614</v>
-      </c>
-      <c r="C4">
-        <v>11685</v>
+        <v>1.9</v>
       </c>
       <c r="F4">
-        <v>2527</v>
+        <v>3435</v>
       </c>
       <c r="G4">
-        <v>10864</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="B5">
-        <v>1310</v>
+        <v>1410</v>
       </c>
       <c r="C5">
-        <v>11356</v>
+        <v>6452</v>
+      </c>
+      <c r="D5">
+        <v>5323</v>
+      </c>
+      <c r="E5">
+        <v>9383</v>
       </c>
       <c r="F5">
-        <v>2826</v>
+        <v>3731</v>
       </c>
       <c r="G5">
-        <v>11188</v>
+        <v>3931</v>
+      </c>
+      <c r="H5">
+        <v>1361</v>
+      </c>
+      <c r="I5">
+        <v>1431</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>2479</v>
+        <v>3216</v>
       </c>
       <c r="C6">
-        <v>15465</v>
+        <v>4063</v>
+      </c>
+      <c r="D6">
+        <v>6434</v>
+      </c>
+      <c r="E6">
+        <v>7676</v>
       </c>
       <c r="F6">
-        <v>3748</v>
+        <v>5173</v>
       </c>
       <c r="G6">
-        <v>18487</v>
+        <v>3434</v>
+      </c>
+      <c r="H6">
+        <v>885</v>
+      </c>
+      <c r="I6">
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="B7">
-        <v>2177</v>
+        <v>6925</v>
       </c>
       <c r="C7">
-        <v>17698</v>
+        <v>3076</v>
+      </c>
+      <c r="D7">
+        <v>10495</v>
+      </c>
+      <c r="E7">
+        <v>8243</v>
       </c>
       <c r="F7">
-        <v>7896</v>
+        <v>5242</v>
       </c>
       <c r="G7">
-        <v>24897</v>
+        <v>2955</v>
+      </c>
+      <c r="H7">
+        <v>1983</v>
+      </c>
+      <c r="I7">
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="B8">
-        <v>3075</v>
+        <v>9759</v>
       </c>
       <c r="C8">
-        <v>35483</v>
+        <v>1539</v>
+      </c>
+      <c r="D8">
+        <v>13438</v>
+      </c>
+      <c r="E8">
+        <v>7016</v>
       </c>
       <c r="F8">
-        <v>13046</v>
+        <v>6646</v>
       </c>
       <c r="G8">
-        <v>20602</v>
+        <v>3083</v>
       </c>
       <c r="H8">
-        <v>3076</v>
+        <v>2118</v>
       </c>
       <c r="I8">
-        <v>8257</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="B9">
-        <v>2813</v>
+        <v>8296</v>
       </c>
       <c r="C9">
-        <v>28120</v>
+        <v>817</v>
+      </c>
+      <c r="D9">
+        <v>12958</v>
+      </c>
+      <c r="E9">
+        <v>3388</v>
       </c>
       <c r="F9">
-        <v>7843</v>
+        <v>6101</v>
       </c>
       <c r="G9">
-        <v>19123</v>
+        <v>2811</v>
       </c>
       <c r="H9">
-        <v>1859</v>
+        <v>2718</v>
       </c>
       <c r="I9">
-        <v>5315</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="B10">
-        <v>3573</v>
+        <v>15369</v>
       </c>
       <c r="C10">
-        <v>46345</v>
+        <v>3600</v>
       </c>
       <c r="D10">
-        <v>20763</v>
+        <v>16820</v>
       </c>
       <c r="E10">
-        <v>40623</v>
+        <v>3796</v>
       </c>
       <c r="F10">
-        <v>10657</v>
+        <v>5267</v>
       </c>
       <c r="G10">
-        <v>12714</v>
+        <v>3396</v>
       </c>
       <c r="H10">
-        <v>6127</v>
+        <v>1605</v>
       </c>
       <c r="I10">
-        <v>6797</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="B11">
-        <v>12628</v>
+        <v>13168</v>
       </c>
       <c r="C11">
-        <v>49148</v>
+        <v>1505</v>
       </c>
       <c r="D11">
-        <v>19463</v>
+        <v>8282</v>
       </c>
       <c r="E11">
-        <v>45229</v>
+        <v>1565</v>
       </c>
       <c r="F11">
-        <v>12174</v>
+        <v>5557</v>
       </c>
       <c r="G11">
-        <v>11990</v>
+        <v>2477</v>
       </c>
       <c r="H11">
-        <v>3971</v>
+        <v>1138</v>
       </c>
       <c r="I11">
-        <v>5250</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="B12">
-        <v>51229</v>
+        <v>16647</v>
       </c>
       <c r="C12">
-        <v>83055</v>
+        <v>1027</v>
       </c>
       <c r="D12">
-        <v>46730</v>
+        <v>9192</v>
       </c>
       <c r="E12">
-        <v>66531</v>
+        <v>3552</v>
       </c>
       <c r="F12">
-        <v>10802</v>
+        <v>6402</v>
       </c>
       <c r="G12">
-        <v>18480</v>
+        <v>3227</v>
       </c>
       <c r="H12">
-        <v>5485</v>
+        <v>885</v>
       </c>
       <c r="I12">
-        <v>7198</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="B13">
-        <v>77262</v>
+        <v>17255</v>
       </c>
       <c r="C13">
-        <v>28532</v>
+        <v>1505</v>
       </c>
       <c r="D13">
-        <v>83684</v>
+        <v>6886</v>
       </c>
       <c r="E13">
-        <v>52558</v>
+        <v>1759</v>
       </c>
       <c r="F13">
-        <v>15795</v>
+        <v>3762</v>
       </c>
       <c r="G13">
-        <v>12526</v>
+        <v>1736</v>
       </c>
       <c r="H13">
-        <v>6933</v>
+        <v>1010</v>
       </c>
       <c r="I13">
-        <v>7861</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="B14">
-        <v>86540</v>
+        <v>21200</v>
       </c>
       <c r="C14">
-        <v>18669</v>
+        <v>2230</v>
       </c>
       <c r="D14">
-        <v>94893</v>
+        <v>8811</v>
       </c>
       <c r="E14">
-        <v>30439</v>
+        <v>2583</v>
       </c>
       <c r="F14">
-        <v>22845</v>
+        <v>6274</v>
       </c>
       <c r="G14">
-        <v>8183</v>
+        <v>2783</v>
       </c>
       <c r="H14">
-        <v>15424</v>
+        <v>2003</v>
       </c>
       <c r="I14">
-        <v>9809</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>2.85</v>
+        <v>2.45</v>
       </c>
       <c r="B15">
-        <v>76232</v>
+        <v>19983</v>
       </c>
       <c r="C15">
-        <v>7862</v>
+        <v>2263</v>
       </c>
       <c r="D15">
-        <v>70268</v>
+        <v>3177</v>
       </c>
       <c r="E15">
-        <v>15134</v>
+        <v>1987</v>
       </c>
       <c r="F15">
-        <v>20269</v>
+        <v>4895</v>
       </c>
       <c r="G15">
-        <v>6122</v>
+        <v>1127</v>
       </c>
       <c r="H15">
-        <v>24147</v>
+        <v>1388</v>
       </c>
       <c r="I15">
-        <v>7987</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B16">
+        <v>19578</v>
+      </c>
+      <c r="C16">
+        <v>872</v>
+      </c>
+      <c r="D16">
+        <v>4747</v>
+      </c>
+      <c r="E16">
+        <v>942</v>
+      </c>
+      <c r="F16">
+        <v>6876</v>
+      </c>
+      <c r="G16">
+        <v>1553</v>
+      </c>
+      <c r="H16">
+        <v>2062</v>
+      </c>
+      <c r="I16">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>2.55</v>
+      </c>
+      <c r="B17">
+        <v>17604</v>
+      </c>
+      <c r="C17">
+        <v>482</v>
+      </c>
+      <c r="D17">
+        <v>3480</v>
+      </c>
+      <c r="E17">
+        <v>956</v>
+      </c>
+      <c r="F17">
+        <v>4445</v>
+      </c>
+      <c r="G17">
+        <v>1020</v>
+      </c>
+      <c r="H17">
+        <v>1692</v>
+      </c>
+      <c r="I17">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="B18">
+        <v>16064</v>
+      </c>
+      <c r="C18">
+        <v>437</v>
+      </c>
+      <c r="D18">
+        <v>8059</v>
+      </c>
+      <c r="E18">
+        <v>1444</v>
+      </c>
+      <c r="F18">
+        <v>5300</v>
+      </c>
+      <c r="G18">
+        <v>801</v>
+      </c>
+      <c r="H18">
+        <v>1998</v>
+      </c>
+      <c r="I18">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="F19">
+        <v>4121</v>
+      </c>
+      <c r="G19">
+        <v>648</v>
+      </c>
+      <c r="H19">
+        <v>4173</v>
+      </c>
+      <c r="I19">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="F20">
+        <v>4766</v>
+      </c>
+      <c r="G20">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="F21">
+        <v>3450</v>
+      </c>
+      <c r="G21">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F22">
+        <v>3945</v>
+      </c>
+      <c r="G22">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="F23">
+        <v>5763</v>
+      </c>
+      <c r="G23">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
         <v>2.9</v>
       </c>
-      <c r="B16">
-        <v>42809</v>
-      </c>
-      <c r="C16">
-        <v>2575</v>
-      </c>
-      <c r="D16">
-        <v>87470</v>
-      </c>
-      <c r="E16">
-        <v>9618</v>
-      </c>
-      <c r="F16">
-        <v>17153</v>
-      </c>
-      <c r="G16">
-        <v>5253</v>
-      </c>
-      <c r="H16">
-        <v>18168</v>
-      </c>
-      <c r="I16">
-        <v>7069</v>
+      <c r="F24">
+        <v>21764</v>
+      </c>
+      <c r="G24">
+        <v>3553</v>
       </c>
     </row>
   </sheetData>
